--- a/loyalwingmen/output.xlsx
+++ b/loyalwingmen/output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>learning_rate</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>total_timesteps</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>n_repetitions</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -461,19 +471,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[632 391]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+          <t>[391 453 247 212 317 444 407]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-6458.8093592</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.070396628411682e-05</v>
+        <v>8.479432609483451e-19</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
